--- a/TCC/Experimentos/resultados/calibragemParametrosAlgoritmo.xlsx
+++ b/TCC/Experimentos/resultados/calibragemParametrosAlgoritmo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IBk" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
   <si>
     <t>Algoritmo IBK</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Número Mínimo de Objetos</t>
-  </si>
-  <si>
-    <t>Número de interações</t>
   </si>
   <si>
     <t>Algoritmo PART</t>
@@ -397,6 +394,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,6 +428,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,25 +443,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,99 +749,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="25"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="V2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="34" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="V2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
       <c r="AM2" s="26"/>
       <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -899,7 +896,7 @@
       <c r="S3" s="7">
         <v>35</v>
       </c>
-      <c r="V3" s="31"/>
+      <c r="V3" s="38"/>
       <c r="W3" s="8">
         <v>1</v>
       </c>
@@ -1007,10 +1004,10 @@
       <c r="Q4" s="1">
         <v>0.93039000000000005</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="35">
         <v>0.93039000000000005</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="35">
         <v>0.93039000000000005</v>
       </c>
       <c r="V4" s="9" t="s">
@@ -1145,10 +1142,10 @@
       <c r="Q5" s="1">
         <v>0.77049199999999995</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="35">
         <v>0.77175300000000002</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="35">
         <v>0.77175300000000002</v>
       </c>
       <c r="V5" s="10" t="s">
@@ -1283,10 +1280,10 @@
       <c r="Q6" s="1">
         <v>0.90769200000000005</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="35">
         <v>0.90769200000000005</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="35">
         <v>0.90769200000000005</v>
       </c>
       <c r="V6" s="10" t="s">
@@ -1421,10 +1418,10 @@
       <c r="Q7" s="1">
         <v>0.91803299999999999</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="35">
         <v>0.91803299999999999</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="35">
         <v>0.91803299999999999</v>
       </c>
       <c r="V7" s="10" t="s">
@@ -1559,10 +1556,10 @@
       <c r="Q8" s="1">
         <v>0.90074399999999999</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="35">
         <v>0.90074399999999999</v>
       </c>
-      <c r="S8" s="50">
+      <c r="S8" s="35">
         <v>0.90074399999999999</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -2134,59 +2131,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
       <c r="S1" s="27"/>
       <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="L2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="42" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="L2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="52"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="7">
         <v>5</v>
       </c>
@@ -2205,13 +2202,13 @@
       <c r="G3" s="7">
         <v>30</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="31">
         <v>35</v>
       </c>
       <c r="I3" s="7">
         <v>40</v>
       </c>
-      <c r="L3" s="41"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="8">
         <v>5</v>
       </c>
@@ -2259,7 +2256,7 @@
       <c r="G4" s="1">
         <v>0.92699500000000001</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="32">
         <v>0.92699500000000001</v>
       </c>
       <c r="I4" s="1">
@@ -2327,7 +2324,7 @@
       <c r="G5" s="1">
         <v>0.77175300000000002</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="32">
         <v>0.77301399999999998</v>
       </c>
       <c r="I5" s="1">
@@ -2395,7 +2392,7 @@
       <c r="G6" s="1">
         <v>0.90769200000000005</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="32">
         <v>0.90769200000000005</v>
       </c>
       <c r="I6" s="1">
@@ -2463,7 +2460,7 @@
       <c r="G7" s="1">
         <v>0.91522199999999998</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="32">
         <v>0.91615899999999995</v>
       </c>
       <c r="I7" s="1">
@@ -2531,7 +2528,7 @@
       <c r="G8" s="1">
         <v>0.90074399999999999</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="32">
         <v>0.90074399999999999</v>
       </c>
       <c r="I8" s="1">
@@ -2605,11 +2602,11 @@
         <f t="shared" si="8"/>
         <v>0.88448120000000008</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="33">
         <f t="shared" si="8"/>
         <v>0.88492080000000006</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="34">
         <f t="shared" si="8"/>
         <v>0.88448120000000008</v>
       </c>
@@ -2812,136 +2809,107 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="J1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="K2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="J2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
       <c r="B3" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C3" s="7">
+        <v>150</v>
+      </c>
+      <c r="D3" s="7">
+        <v>200</v>
+      </c>
+      <c r="E3" s="7">
+        <v>250</v>
+      </c>
+      <c r="F3" s="7">
+        <v>300</v>
+      </c>
+      <c r="G3" s="7">
+        <v>350</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="7">
         <v>100</v>
       </c>
-      <c r="D3" s="7">
+      <c r="L3" s="7">
         <v>150</v>
       </c>
-      <c r="E3" s="7">
+      <c r="M3" s="7">
         <v>200</v>
       </c>
-      <c r="F3" s="7">
+      <c r="N3" s="7">
         <v>250</v>
       </c>
-      <c r="G3" s="7">
+      <c r="O3" s="7">
         <v>300</v>
       </c>
-      <c r="H3" s="7">
+      <c r="P3" s="7">
         <v>350</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="7">
-        <v>50</v>
-      </c>
-      <c r="M3" s="7">
-        <v>100</v>
-      </c>
-      <c r="N3" s="7">
-        <v>150</v>
-      </c>
-      <c r="O3" s="7">
-        <v>200</v>
-      </c>
-      <c r="P3" s="7">
-        <v>250</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>300</v>
-      </c>
-      <c r="R3" s="7">
-        <v>350</v>
-      </c>
-      <c r="S3" s="7">
-        <v>400</v>
-      </c>
-      <c r="T3" s="7">
-        <v>450</v>
-      </c>
-      <c r="U3" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
+        <v>0.93039000000000005</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.92954199999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.93039000000000005</v>
       </c>
       <c r="D4" s="1">
         <v>0.92954199999999998</v>
@@ -2955,63 +2923,44 @@
       <c r="G4" s="1">
         <v>0.92954199999999998</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.92954199999999998</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="17">
+        <f>_xlfn.RANK.AVG(B4,B4:G4)</f>
+        <v>1</v>
+      </c>
       <c r="L4" s="17">
-        <f>_xlfn.RANK.AVG(B4,B4:H4)</f>
-        <v>4.5</v>
+        <f>_xlfn.RANK.AVG(C4,B4:G4)</f>
+        <v>4</v>
       </c>
       <c r="M4" s="17">
-        <f>_xlfn.RANK.AVG(C4,B4:H4)</f>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(D4,B4:G4)</f>
+        <v>4</v>
       </c>
       <c r="N4" s="17">
-        <f>_xlfn.RANK.AVG(D4,B4:H4)</f>
-        <v>4.5</v>
+        <f>_xlfn.RANK.AVG(E4,B4:G4)</f>
+        <v>4</v>
       </c>
       <c r="O4" s="17">
-        <f>_xlfn.RANK.AVG(E4,B4:H4)</f>
-        <v>4.5</v>
+        <f>_xlfn.RANK.AVG(F4,B4:G4)</f>
+        <v>4</v>
       </c>
       <c r="P4" s="17">
-        <f>_xlfn.RANK.AVG(F4,B4:H4)</f>
-        <v>4.5</v>
-      </c>
-      <c r="Q4" s="17">
-        <f>_xlfn.RANK.AVG(G4,B4:H4)</f>
-        <v>4.5</v>
-      </c>
-      <c r="R4" s="17">
-        <f>_xlfn.RANK.AVG(H4,B4:H4)</f>
-        <v>4.5</v>
-      </c>
-      <c r="S4" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B4:H4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T4" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B4:H4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U4" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B4:H4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V4" s="6">
-        <f>COUNTIF(L4:U4,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+        <f>_xlfn.RANK.AVG(G4,B4:G4)</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>COUNTIF(K4:P4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.76418699999999995</v>
+      <c r="B5" s="1">
+        <v>0.76670899999999997</v>
       </c>
       <c r="C5" s="1">
         <v>0.76670899999999997</v>
@@ -3020,74 +2969,55 @@
         <v>0.76670899999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.76670899999999997</v>
+        <v>0.76418699999999995</v>
       </c>
       <c r="F5" s="1">
-        <v>0.76418699999999995</v>
+        <v>0.76544800000000002</v>
       </c>
       <c r="G5" s="1">
         <v>0.76544800000000002</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.76544800000000002</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="K5" s="17">
+        <f>_xlfn.RANK.AVG(B5,B5:G5)</f>
+        <v>2</v>
+      </c>
       <c r="L5" s="17">
-        <f>_xlfn.RANK.AVG(B5,B5:H5)</f>
-        <v>6.5</v>
+        <f>_xlfn.RANK.AVG(C5,B5:G5)</f>
+        <v>2</v>
       </c>
       <c r="M5" s="17">
-        <f>_xlfn.RANK.AVG(C5,B5:H5)</f>
+        <f>_xlfn.RANK.AVG(D5,B5:G5)</f>
         <v>2</v>
       </c>
       <c r="N5" s="17">
-        <f>_xlfn.RANK.AVG(D5,B5:H5)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(E5,B5:G5)</f>
+        <v>6</v>
       </c>
       <c r="O5" s="17">
-        <f>_xlfn.RANK.AVG(E5,B5:H5)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(F5,B5:G5)</f>
+        <v>4.5</v>
       </c>
       <c r="P5" s="17">
-        <f>_xlfn.RANK.AVG(F5,B5:H5)</f>
-        <v>6.5</v>
-      </c>
-      <c r="Q5" s="17">
-        <f>_xlfn.RANK.AVG(G5,B5:H5)</f>
+        <f>_xlfn.RANK.AVG(G5,B5:G5)</f>
         <v>4.5</v>
       </c>
-      <c r="R5" s="17">
-        <f>_xlfn.RANK.AVG(H5,B5:H5)</f>
-        <v>4.5</v>
-      </c>
-      <c r="S5" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B5:H5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T5" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B5:H5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U5" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B5:H5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V5" s="6">
-        <f>COUNTIF(L5:U5,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6">
+        <f>COUNTIF(K5:P5,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>0.90461499999999995</v>
       </c>
       <c r="C6" s="1">
-        <v>0.90461499999999995</v>
+        <v>0.90615400000000002</v>
       </c>
       <c r="D6" s="1">
         <v>0.90615400000000002</v>
@@ -3096,68 +3026,49 @@
         <v>0.90615400000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>0.90615400000000002</v>
+        <v>0.90769200000000005</v>
       </c>
       <c r="G6" s="1">
         <v>0.90769200000000005</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.90769200000000005</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="K6" s="17">
+        <f>_xlfn.RANK.AVG(B6,B6:G6)</f>
+        <v>6</v>
+      </c>
       <c r="L6" s="17">
-        <f>_xlfn.RANK.AVG(B6,B6:H6)</f>
-        <v>6.5</v>
+        <f>_xlfn.RANK.AVG(C6,B6:G6)</f>
+        <v>4</v>
       </c>
       <c r="M6" s="17">
-        <f>_xlfn.RANK.AVG(C6,B6:H6)</f>
-        <v>6.5</v>
+        <f>_xlfn.RANK.AVG(D6,B6:G6)</f>
+        <v>4</v>
       </c>
       <c r="N6" s="17">
-        <f>_xlfn.RANK.AVG(D6,B6:H6)</f>
+        <f>_xlfn.RANK.AVG(E6,B6:G6)</f>
         <v>4</v>
       </c>
       <c r="O6" s="17">
-        <f>_xlfn.RANK.AVG(E6,B6:H6)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(F6,B6:G6)</f>
+        <v>1.5</v>
       </c>
       <c r="P6" s="17">
-        <f>_xlfn.RANK.AVG(F6,B6:H6)</f>
-        <v>4</v>
-      </c>
-      <c r="Q6" s="17">
-        <f>_xlfn.RANK.AVG(G6,B6:H6)</f>
+        <f>_xlfn.RANK.AVG(G6,B6:G6)</f>
         <v>1.5</v>
       </c>
-      <c r="R6" s="17">
-        <f>_xlfn.RANK.AVG(H6,B6:H6)</f>
-        <v>1.5</v>
-      </c>
-      <c r="S6" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B6:H6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T6" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B6:H6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U6" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B6:H6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V6" s="6">
-        <f>COUNTIF(L6:U6,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="6">
+        <f>COUNTIF(K6:P6,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.91709600000000002</v>
+      <c r="B7" s="1">
+        <v>0.91756400000000005</v>
       </c>
       <c r="C7" s="1">
         <v>0.91756400000000005</v>
@@ -3174,62 +3085,43 @@
       <c r="G7" s="1">
         <v>0.91756400000000005</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.91756400000000005</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="K7" s="17">
+        <f>_xlfn.RANK.AVG(B7,B7:G7)</f>
+        <v>3.5</v>
+      </c>
       <c r="L7" s="17">
-        <f>_xlfn.RANK.AVG(B7,B7:H7)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(C7,B7:G7)</f>
+        <v>3.5</v>
       </c>
       <c r="M7" s="17">
-        <f>_xlfn.RANK.AVG(C7,B7:H7)</f>
+        <f>_xlfn.RANK.AVG(D7,B7:G7)</f>
         <v>3.5</v>
       </c>
       <c r="N7" s="17">
-        <f>_xlfn.RANK.AVG(D7,B7:H7)</f>
+        <f>_xlfn.RANK.AVG(E7,B7:G7)</f>
         <v>3.5</v>
       </c>
       <c r="O7" s="17">
-        <f>_xlfn.RANK.AVG(E7,B7:H7)</f>
+        <f>_xlfn.RANK.AVG(F7,B7:G7)</f>
         <v>3.5</v>
       </c>
       <c r="P7" s="17">
-        <f>_xlfn.RANK.AVG(F7,B7:H7)</f>
+        <f>_xlfn.RANK.AVG(G7,B7:G7)</f>
         <v>3.5</v>
       </c>
-      <c r="Q7" s="17">
-        <f>_xlfn.RANK.AVG(G7,B7:H7)</f>
-        <v>3.5</v>
-      </c>
-      <c r="R7" s="17">
-        <f>_xlfn.RANK.AVG(H7,B7:H7)</f>
-        <v>3.5</v>
-      </c>
-      <c r="S7" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B7:H7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T7" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B7:H7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U7" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B7:H7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V7" s="6">
-        <f>COUNTIF(L7:U7,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6">
+        <f>COUNTIF(K7:P7,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>0.90198500000000004</v>
       </c>
       <c r="C8" s="1">
@@ -3247,99 +3139,80 @@
       <c r="G8" s="1">
         <v>0.90198500000000004</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.90198500000000004</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="K8" s="17">
+        <f>_xlfn.RANK.AVG(B8,B8:G8)</f>
+        <v>3.5</v>
+      </c>
       <c r="L8" s="17">
-        <f>_xlfn.RANK.AVG(B8,B8:H8)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(C8,B8:G8)</f>
+        <v>3.5</v>
       </c>
       <c r="M8" s="17">
-        <f>_xlfn.RANK.AVG(C8,B8:H8)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(D8,B8:G8)</f>
+        <v>3.5</v>
       </c>
       <c r="N8" s="17">
-        <f>_xlfn.RANK.AVG(D8,B8:H8)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(E8,B8:G8)</f>
+        <v>3.5</v>
       </c>
       <c r="O8" s="17">
-        <f>_xlfn.RANK.AVG(E8,B8:H8)</f>
-        <v>4</v>
+        <f>_xlfn.RANK.AVG(F8,B8:G8)</f>
+        <v>3.5</v>
       </c>
       <c r="P8" s="17">
-        <f>_xlfn.RANK.AVG(F8,B8:H8)</f>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="17">
-        <f>_xlfn.RANK.AVG(G8,B8:H8)</f>
-        <v>4</v>
-      </c>
-      <c r="R8" s="17">
-        <f>_xlfn.RANK.AVG(H8,B8:H8)</f>
-        <v>4</v>
-      </c>
-      <c r="S8" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B8:H8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T8" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B8:H8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U8" s="17" t="e">
-        <f>_xlfn.RANK.AVG(#REF!,B8:H8)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V8" s="6">
-        <f>COUNTIF(L8:U8,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+        <f>_xlfn.RANK.AVG(G8,B8:G8)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>COUNTIF(K8:P8,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" ref="B9:H9" si="0">AVERAGE(B4:B8)</f>
-        <v>0.88348499999999996</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:G9" si="0">AVERAGE(B4:B8)</f>
+        <v>0.88425260000000017</v>
+      </c>
+      <c r="C9" s="23">
         <f t="shared" si="0"/>
-        <v>0.88425260000000017</v>
+        <v>0.88439080000000003</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" si="0"/>
         <v>0.88439080000000003</v>
       </c>
-      <c r="E9" s="23">
-        <f t="shared" si="0"/>
-        <v>0.88439080000000003</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.88388639999999996</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.88444619999999996</v>
       </c>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>0.88444619999999996</v>
       </c>
-      <c r="H9" s="23">
-        <f t="shared" si="0"/>
-        <v>0.88444619999999996</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="K9" s="19">
+        <f t="shared" ref="K9:P9" si="1">COUNTIF(K4:K8,1)</f>
+        <v>1</v>
+      </c>
       <c r="L9" s="19">
-        <f>COUNTIF(L4:L8,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="19">
-        <f t="shared" ref="M9:U9" si="1">COUNTIF(M4:M8,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="1"/>
@@ -3353,66 +3226,46 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="12"/>
-    </row>
-    <row r="10" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="22">
+        <f>K10</f>
+        <v>3.2</v>
+      </c>
+      <c r="C10" s="18">
         <f>L10</f>
-        <v>5.7</v>
-      </c>
-      <c r="C10" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="D10" s="18">
         <f>M10</f>
         <v>3.4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="E10" s="18">
         <f>N10</f>
-        <v>3.6</v>
-      </c>
-      <c r="E10" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="F10" s="18">
         <f>O10</f>
-        <v>3.6</v>
-      </c>
-      <c r="F10" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="G10" s="18">
         <f>P10</f>
-        <v>4.5</v>
-      </c>
-      <c r="G10" s="18">
-        <f>Q10</f>
-        <v>3.6</v>
-      </c>
-      <c r="H10" s="18">
-        <f>R10</f>
-        <v>3.6</v>
-      </c>
-      <c r="K10" s="11" t="s">
+        <v>3.4</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="18">
-        <f t="shared" ref="L10:U10" si="2">AVERAGE(L4:L8)</f>
-        <v>5.7</v>
+      <c r="K10" s="19">
+        <f t="shared" ref="K10:P10" si="2">AVERAGE(K4:K8)</f>
+        <v>3.2</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>3.4</v>
       </c>
       <c r="M10" s="19">
         <f t="shared" si="2"/>
@@ -3420,148 +3273,116 @@
       </c>
       <c r="N10" s="19">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P10" s="19">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="R10" s="19">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="S10" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T10" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U10" s="19" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V10" s="12"/>
-    </row>
-    <row r="11" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="24">
+        <f>K9</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="24">
         <f>L9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="24">
+      <c r="D11" s="24">
         <f>M9</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
         <f>N9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="24">
+      <c r="F11" s="24">
         <f>O9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="24">
+      <c r="G11" s="24">
         <f>P9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="24">
-        <f>Q9</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="24">
-        <f>R9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="20">
-        <f>_xlfn.RANK.AVG(B9,B9:H9)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(B9,B9:G9)</f>
+        <v>5</v>
       </c>
       <c r="C12" s="20">
-        <f>_xlfn.RANK.AVG(C9,B9:H9)</f>
-        <v>5</v>
+        <f>_xlfn.RANK.AVG(C9,B9:G9)</f>
+        <v>3.5</v>
       </c>
       <c r="D12" s="20">
-        <f>_xlfn.RANK.AVG(D9,B9:H9)</f>
+        <f>_xlfn.RANK.AVG(D9,B9:G9)</f>
         <v>3.5</v>
       </c>
       <c r="E12" s="20">
-        <f>_xlfn.RANK.AVG(E9,B9:H9)</f>
-        <v>3.5</v>
+        <f>_xlfn.RANK.AVG(E9,B9:G9)</f>
+        <v>6</v>
       </c>
       <c r="F12" s="20">
-        <f>_xlfn.RANK.AVG(F9,B9:H9)</f>
-        <v>6</v>
+        <f>_xlfn.RANK.AVG(F9,B9:G9)</f>
+        <v>1.5</v>
       </c>
       <c r="G12" s="20">
-        <f>_xlfn.RANK.AVG(G9,B9:H9)</f>
+        <f>_xlfn.RANK.AVG(G9,B9:G9)</f>
         <v>1.5</v>
       </c>
-      <c r="H12" s="20">
-        <f>_xlfn.RANK.AVG(H9,B9:H9)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="20">
-        <f>_xlfn.RANK.AVG(B10,B10:H10)</f>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(B10,B10:G10)</f>
+        <v>6</v>
       </c>
       <c r="C13" s="20">
-        <f>_xlfn.RANK.AVG(C10,B10:H10)</f>
-        <v>7</v>
+        <f>_xlfn.RANK.AVG(C10,B10:G10)</f>
+        <v>3.5</v>
       </c>
       <c r="D13" s="20">
-        <f>_xlfn.RANK.AVG(D10,B10:H10)</f>
-        <v>4.5</v>
+        <f>_xlfn.RANK.AVG(D10,B10:G10)</f>
+        <v>3.5</v>
       </c>
       <c r="E13" s="20">
-        <f>_xlfn.RANK.AVG(E10,B10:H10)</f>
-        <v>4.5</v>
+        <f>_xlfn.RANK.AVG(E10,B10:G10)</f>
+        <v>1</v>
       </c>
       <c r="F13" s="20">
-        <f>_xlfn.RANK.AVG(F10,B10:H10)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(F10,B10:G10)</f>
+        <v>3.5</v>
       </c>
       <c r="G13" s="20">
-        <f>_xlfn.RANK.AVG(G10,B10:H10)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H13" s="20">
-        <f>_xlfn.RANK.AVG(H10,B10:H10)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="54"/>
+        <f>_xlfn.RANK.AVG(G10,B10:G10)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:P2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3586,39 +3407,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="G2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="45" t="s">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
@@ -3628,7 +3449,7 @@
       <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3596,7 @@
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="36">
         <v>0.89578199999999997</v>
       </c>
       <c r="C8" s="1">
@@ -3921,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,67 +3755,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="N1" s="44" t="s">
+      <c r="A1" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="N2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="45" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="N2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="7">
         <v>2</v>
       </c>
@@ -4025,7 +3846,7 @@
       <c r="K3" s="7">
         <v>20</v>
       </c>
-      <c r="N3" s="31"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="7">
         <v>2</v>
       </c>
